--- a/MIRS2004_SOFT_0002/module_ras.xlsx
+++ b/MIRS2004_SOFT_0002/module_ras.xlsx
@@ -21,6 +21,33 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+  <si>
+    <t>･･･</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>･･･</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -64,9 +91,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -89,16 +119,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>5253</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>195753</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>16566</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>5254</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>16566</xdr:rowOff>
+      <xdr:rowOff>168966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -107,27 +137,29 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6006003" y="188016"/>
-          <a:ext cx="800101" cy="342900"/>
+          <a:off x="5996478" y="340416"/>
+          <a:ext cx="794847" cy="345384"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -140,7 +172,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>pilot</a:t>
+            <a:t>pilot_tb</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -150,16 +182,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>165651</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165653</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -168,8 +200,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3379305" y="1209260"/>
-          <a:ext cx="795130" cy="347871"/>
+          <a:off x="5400677" y="1381238"/>
+          <a:ext cx="800098" cy="342902"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -214,16 +246,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>4742</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12989</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>195943</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2743</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>444</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -232,27 +264,23 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2231211" y="1912036"/>
-          <a:ext cx="798420" cy="335035"/>
+          <a:off x="4005242" y="1381633"/>
+          <a:ext cx="791276" cy="333311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -275,77 +303,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>7699</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>8282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>8282</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="正方形/長方形 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4608857" y="1208432"/>
-          <a:ext cx="800100" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>position</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>4743</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12988</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
       <xdr:colOff>195943</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2742</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>162367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -354,8 +321,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2231212" y="2602597"/>
-          <a:ext cx="798419" cy="335036"/>
+          <a:off x="4008199" y="2057907"/>
+          <a:ext cx="788319" cy="333310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -397,33 +364,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>2603</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>189604</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>158356</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="正方形/長方形 56"/>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7003478" y="1190500"/>
-          <a:ext cx="787076" cy="339456"/>
+          <a:off x="2600325" y="342900"/>
+          <a:ext cx="800100" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -448,7 +421,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>display</a:t>
+            <a:t>stop</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -458,33 +431,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>2956</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>168493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>187379</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>173569</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>187379</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>173568</xdr:rowOff>
+      <xdr:colOff>2956</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>168494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="正方形/長方形 57"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11517988" y="2260786"/>
-          <a:ext cx="795130" cy="347869"/>
+          <a:off x="8203981" y="1368643"/>
+          <a:ext cx="800100" cy="342901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -509,8 +488,9 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>get_image</a:t>
+            <a:t>C_send</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -518,45 +498,134 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>1241</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>193127</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>165165</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>165166</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6393902" y="685800"/>
+          <a:ext cx="6898" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>330</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1809</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>507</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線コネクタ 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="2"/>
+          <a:endCxn id="56" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400880" y="1714944"/>
+          <a:ext cx="1479" cy="342963"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4742</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>444</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="正方形/長方形 59"/>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10536719" y="1208774"/>
-          <a:ext cx="1183172" cy="347870"/>
+          <a:off x="2605067" y="1038733"/>
+          <a:ext cx="791276" cy="333311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -569,7 +638,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>camera_ball</a:t>
+            <a:t>request</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -579,73 +648,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>201546</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2743</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>201547</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12988</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直線コネクタ 78"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="54" idx="2"/>
-          <a:endCxn id="56" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2630421" y="2247071"/>
-          <a:ext cx="1" cy="355526"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>157368</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>197541</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>157369</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7699</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>162367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12134021" y="1200977"/>
-          <a:ext cx="1183172" cy="347870"/>
+          <a:off x="2608024" y="1715007"/>
+          <a:ext cx="788319" cy="333310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -677,7 +699,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>camera_corn</a:t>
+            <a:t>arduino</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -687,33 +709,132 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>8283</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>330</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1809</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>507</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線コネクタ 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000705" y="1372044"/>
+          <a:ext cx="1479" cy="342963"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>331</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>8283</xdr:rowOff>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10033</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="カギ線コネクタ 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="54" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4400881" y="1019175"/>
+          <a:ext cx="2009445" cy="362458"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>200023</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvPr id="40" name="正方形/長方形 39"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5756412" y="1225826"/>
-          <a:ext cx="795130" cy="347870"/>
+          <a:off x="6800850" y="1371600"/>
+          <a:ext cx="800098" cy="342902"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -738,7 +859,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>position</a:t>
+            <a:t>deg_tb</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -748,31 +869,30 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>165166</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>187379</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>173569</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="カギ線コネクタ 8"/>
+        <xdr:cNvPr id="11" name="カギ線コネクタ 10"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="60" idx="2"/>
-          <a:endCxn id="58" idx="0"/>
+          <a:endCxn id="40" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="11169858" y="1515091"/>
-          <a:ext cx="704142" cy="787248"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+        <a:xfrm>
+          <a:off x="6410325" y="1019175"/>
+          <a:ext cx="790574" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -795,31 +915,30 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>187380</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>157368</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>3521</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>173568</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>2956</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>168493</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="カギ線コネクタ 11"/>
+        <xdr:cNvPr id="17" name="カギ線コネクタ 16"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="24" idx="2"/>
-          <a:endCxn id="58" idx="0"/>
+          <a:endCxn id="15" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="11964611" y="1499789"/>
-          <a:ext cx="711939" cy="810054"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+        <a:xfrm>
+          <a:off x="7200900" y="1019175"/>
+          <a:ext cx="1403131" cy="349468"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -842,31 +961,30 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>5253</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>16566</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>2898</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>157368</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9638</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="カギ線コネクタ 13"/>
+        <xdr:cNvPr id="26" name="直線コネクタ 25"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="24" idx="0"/>
+          <a:stCxn id="52" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8077550" y="-1140581"/>
-          <a:ext cx="655152" cy="3998145"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5800725" y="1019175"/>
+          <a:ext cx="1" cy="362063"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -889,329 +1007,51 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>5255</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>195884</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>165164</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="カギ線コネクタ 15"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="60" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7270032" y="-333062"/>
-          <a:ext cx="662949" cy="2390904"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>195753</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>168966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>16566</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>5255</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>8283</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="カギ線コネクタ 28"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="25" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5959894" y="762272"/>
-          <a:ext cx="677517" cy="214805"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>5254</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>16566</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>196116</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="カギ線コネクタ 30"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="57" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6571743" y="365227"/>
-          <a:ext cx="659584" cy="990962"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>16567</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>5254</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>8283</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="カギ線コネクタ 35"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="55" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5368723" y="171101"/>
-          <a:ext cx="677516" cy="1397147"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>5255</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>165650</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="カギ線コネクタ 37"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="52" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4771548" y="-440156"/>
-          <a:ext cx="663435" cy="2605578"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>331</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>16566</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>5255</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12989</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="カギ線コネクタ 39"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="54" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3819344" y="-687772"/>
-          <a:ext cx="1368023" cy="3805399"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 23542"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>191082</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>163924</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvPr id="57" name="正方形/長方形 56"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7000875" y="1876425"/>
-          <a:ext cx="791157" cy="344899"/>
+          <a:off x="5996478" y="340416"/>
+          <a:ext cx="794847" cy="345384"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -1224,7 +1064,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>animation</a:t>
+            <a:t>pilot_tt</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1234,29 +1074,622 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>195554</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>158356</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>196116</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5400677" y="1381238"/>
+          <a:ext cx="800098" cy="342902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>uss</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>4742</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>444</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4005242" y="1381633"/>
+          <a:ext cx="791276" cy="333311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>request</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>7699</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>162367</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4008199" y="2057907"/>
+          <a:ext cx="788319" cy="333310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>arduino</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>2956</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>2956</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>168494</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8203981" y="1368643"/>
+          <a:ext cx="800100" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C_send</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>193127</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線コネクタ 3"/>
+        <xdr:cNvPr id="64" name="直線コネクタ 63"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="57" idx="2"/>
-          <a:endCxn id="30" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6393902" y="685800"/>
+          <a:ext cx="6898" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>330</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1809</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>507</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線コネクタ 64"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="2"/>
+          <a:endCxn id="62" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400880" y="1714944"/>
+          <a:ext cx="1479" cy="342963"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>331</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10033</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="カギ線コネクタ 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="61" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4400881" y="1019175"/>
+          <a:ext cx="2009445" cy="362458"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>200023</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6800850" y="1371600"/>
+          <a:ext cx="800098" cy="342902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>deg_tt</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="カギ線コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="67" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410325" y="1019175"/>
+          <a:ext cx="790574" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>2956</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168493</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="カギ線コネクタ 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="63" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="1019175"/>
+          <a:ext cx="1403131" cy="349468"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線コネクタ 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5800725" y="1019175"/>
+          <a:ext cx="1" cy="362063"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>202396</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10033</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線コネクタ 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7396454" y="1529956"/>
-          <a:ext cx="562" cy="346469"/>
+          <a:off x="3059896" y="2299607"/>
+          <a:ext cx="1711" cy="363819"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1279,28 +1712,518 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>173933</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="359464"/>
+          <a:ext cx="600075" cy="157369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>173933</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="702364"/>
+          <a:ext cx="600075" cy="157369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>204106</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11838214" y="1238250"/>
+          <a:ext cx="816428" cy="353787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>py_recv</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>204106</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11838214" y="1945821"/>
+          <a:ext cx="816428" cy="353787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>face</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>204106</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="正方形/長方形 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13266964" y="1238250"/>
+          <a:ext cx="816428" cy="353787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>deg.py</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="0"/>
+          <a:endCxn id="76" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12246428" y="1592037"/>
+          <a:ext cx="0" cy="353784"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>173933</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9593036" y="547243"/>
+          <a:ext cx="612321" cy="157369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>176892</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>149679</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>48</xdr:col>
+          <xdr:colOff>186417</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>159204</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="81" name="図 80"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$K$2:$BC$29" spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="789213" y="6164036"/>
+              <a:ext cx="9194347" cy="4962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>131989</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>23131</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="図 47"/>
+        <xdr:cNvPr id="86" name="図 85"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1314,8 +2237,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="200025" y="3686175"/>
-          <a:ext cx="9610725" cy="3267075"/>
+          <a:off x="11348357" y="5497285"/>
+          <a:ext cx="4295775" cy="2132239"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1330,44 +2253,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>83129</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114964</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 34"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9477375" y="3362325"/>
-          <a:ext cx="9608129" cy="3267739"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1637,18 +2522,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="AY4:BW6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ25" sqref="AZ25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BE29" sqref="BE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="51:75" x14ac:dyDescent="0.15">
+      <c r="AY4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="51:75" x14ac:dyDescent="0.15">
+      <c r="AY6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>